--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1283724.325817426</v>
+        <v>-1286205.245642886</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14215247.37321813</v>
+        <v>14215247.37321812</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>139.6358187148276</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
         <v>384.0015790663271</v>
@@ -1388,7 +1388,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>14.6567831857995</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>251.8589519040531</v>
       </c>
       <c r="X11" t="n">
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1534,7 +1534,7 @@
         <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
@@ -1543,10 +1543,10 @@
         <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>64.6178172410867</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292091</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>155.3193101077163</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>225.2174967367016</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X13" t="n">
         <v>198.7895088019107</v>
@@ -1607,16 +1607,16 @@
         <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>67.95805366410212</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
         <v>384.0015790663271</v>
@@ -1625,7 +1625,7 @@
         <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579958</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104947</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524938</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830086</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>128.0633671296632</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913426</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358049</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719019</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271172</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292096</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443155</v>
@@ -1819,16 +1819,16 @@
         <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>158.6024053529674</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367016</v>
       </c>
       <c r="W16" t="n">
-        <v>194.228169573041</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649684</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>97.90474570419575</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>238.1293846710411</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
         <v>312.3426554503346</v>
@@ -2005,7 +2005,7 @@
         <v>93.35153789290887</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249339</v>
+        <v>137.1198840074552</v>
       </c>
       <c r="E19" t="n">
         <v>72.5386794408502</v>
@@ -2062,7 +2062,7 @@
         <v>178.242360118109</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0274093258339</v>
+        <v>212.627715130872</v>
       </c>
       <c r="X19" t="n">
         <v>151.8143721833182</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245691</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>92.80638609324821</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0998887531831</v>
+        <v>9.362935956137067</v>
       </c>
       <c r="V20" t="n">
         <v>253.856975264416</v>
@@ -2144,7 +2144,7 @@
         <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
         <v>312.3426554503346</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290889</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249342</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085023</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F22" t="n">
-        <v>133.925459012174</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330928</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860184</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411916</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432839</v>
+        <v>15.03686946432836</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>214.2140663782801</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245692</v>
+        <v>35.29247858245687</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531831</v>
+        <v>177.099888753183</v>
       </c>
       <c r="V23" t="n">
         <v>253.856975264416</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762184</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290889</v>
+        <v>93.35153789290887</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249342</v>
+        <v>74.72018981249339</v>
       </c>
       <c r="E25" t="n">
-        <v>134.9383736358115</v>
+        <v>72.5386794408502</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721231</v>
+        <v>71.52576481721228</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330928</v>
+        <v>92.13052505330926</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860184</v>
+        <v>70.85973170860181</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411917</v>
+        <v>22.45713720411913</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0368694643284</v>
+        <v>77.4365636592908</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2612,7 +2612,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V26" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
         <v>302.2658320988205</v>
@@ -2621,7 +2621,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2956,16 +2956,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124554</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210277</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797666</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433873</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572827</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145484</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007093</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247631</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383223</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482618</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092316</v>
+        <v>110.5480262953163</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621572</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T37" t="n">
-        <v>164.0711673124584</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115153</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060902</v>
+        <v>89.27723295061004</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.6864980364926</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>111.8803261135837</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
@@ -3964,7 +3964,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007076</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420298</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893079</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503639</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.1472599538322</v>
+        <v>82.14725995383232</v>
       </c>
       <c r="C46" t="n">
-        <v>113.1013389531845</v>
+        <v>69.56210087052285</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010738</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846408</v>
+        <v>48.74924241846419</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482615</v>
+        <v>47.73632779482627</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092325</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.0702946862158</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333682</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480641</v>
+        <v>164.0711673124582</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957229</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084859</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.024935160932</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239897</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1222.405595170597</v>
+        <v>1796.226782517378</v>
       </c>
       <c r="C11" t="n">
-        <v>880.6351454899091</v>
+        <v>1454.45633283669</v>
       </c>
       <c r="D11" t="n">
-        <v>880.6351454899091</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="E11" t="n">
-        <v>880.6351454899091</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>739.58886395978</v>
+        <v>739.5888639597796</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299104</v>
+        <v>81.31694793299098</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3146.820141253117</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2920.481731786677</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V11" t="n">
-        <v>2616.61091170283</v>
+        <v>2759.850719956089</v>
       </c>
       <c r="W11" t="n">
-        <v>2291.03432369244</v>
+        <v>2505.447738234823</v>
       </c>
       <c r="X11" t="n">
-        <v>1944.760632691083</v>
+        <v>2159.174047233466</v>
       </c>
       <c r="Y11" t="n">
-        <v>1581.813367974995</v>
+        <v>1796.226782517378</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.3810026451364</v>
+        <v>780.5481833010717</v>
       </c>
       <c r="C13" t="n">
-        <v>635.6368869769532</v>
+        <v>638.8040676328885</v>
       </c>
       <c r="D13" t="n">
-        <v>512.7123148243411</v>
+        <v>515.8794954802763</v>
       </c>
       <c r="E13" t="n">
-        <v>391.9912885016716</v>
+        <v>515.8794954802763</v>
       </c>
       <c r="F13" t="n">
-        <v>272.2934082634849</v>
+        <v>396.1816152420897</v>
       </c>
       <c r="G13" t="n">
-        <v>131.7826388979276</v>
+        <v>255.6708458765329</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784765</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>2077.863719075785</v>
+        <v>1976.008292145084</v>
       </c>
       <c r="T13" t="n">
-        <v>2077.863719075785</v>
+        <v>1819.120100117088</v>
       </c>
       <c r="U13" t="n">
-        <v>1815.952919461153</v>
+        <v>1819.120100117088</v>
       </c>
       <c r="V13" t="n">
-        <v>1588.460498514989</v>
+        <v>1591.627679170925</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.235395737752</v>
+        <v>1329.402576393688</v>
       </c>
       <c r="X13" t="n">
-        <v>1125.437912099459</v>
+        <v>1128.605092755394</v>
       </c>
       <c r="Y13" t="n">
-        <v>931.8374002156525</v>
+        <v>935.0045808715878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1139.306993957415</v>
+        <v>1823.749336508873</v>
       </c>
       <c r="C14" t="n">
-        <v>1139.306993957415</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="D14" t="n">
-        <v>808.2333626103887</v>
+        <v>1481.978886828185</v>
       </c>
       <c r="E14" t="n">
-        <v>808.2333626103887</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597803</v>
+        <v>739.5888639597802</v>
       </c>
       <c r="G14" t="n">
         <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299107</v>
+        <v>81.31694793299103</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.50722039599</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573496</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489649</v>
+        <v>3021.735001525324</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479258</v>
+        <v>2892.378065030715</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.662031477902</v>
+        <v>2546.104374029359</v>
       </c>
       <c r="Y14" t="n">
-        <v>1498.714766761814</v>
+        <v>2183.157109313271</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>638.8040676328895</v>
+        <v>782.2440901013233</v>
       </c>
       <c r="C16" t="n">
-        <v>638.8040676328895</v>
+        <v>640.4999744331401</v>
       </c>
       <c r="D16" t="n">
-        <v>515.8794954802772</v>
+        <v>517.575402280528</v>
       </c>
       <c r="E16" t="n">
-        <v>515.8794954802772</v>
+        <v>396.8543759578586</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420905</v>
+        <v>277.1564957196719</v>
       </c>
       <c r="G16" t="n">
-        <v>255.670845876533</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541145</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5440,7 +5440,7 @@
         <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402567</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5452,10 +5452,10 @@
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
@@ -5467,19 +5467,19 @@
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1558.590904140103</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430789</v>
+        <v>1331.09848319394</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.20206315499</v>
+        <v>1331.09848319394</v>
       </c>
       <c r="X16" t="n">
-        <v>832.404579516696</v>
+        <v>1130.300999555646</v>
       </c>
       <c r="Y16" t="n">
-        <v>638.8040676328895</v>
+        <v>936.7004876718394</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1855.320338666653</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D17" t="n">
         <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446369</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628264</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,22 +5513,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
@@ -5546,13 +5546,13 @@
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281942</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W17" t="n">
-        <v>2482.776110290992</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X17" t="n">
         <v>2482.776110290992</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872289</v>
+        <v>632.151773123554</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671189</v>
+        <v>537.857290403444</v>
       </c>
       <c r="D19" t="n">
         <v>399.3523570625802</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201114</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356254</v>
+        <v>1038.65726737195</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454049</v>
+        <v>885.30941668173</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096717</v>
+        <v>739.1585377459968</v>
       </c>
     </row>
     <row r="20">
@@ -5735,61 +5735,61 @@
         <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446363</v>
+        <v>966.2289711446365</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G20" t="n">
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3196.213029007449</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>3017.324252489082</v>
+        <v>3316.148310542366</v>
       </c>
       <c r="V20" t="n">
-        <v>2760.903065353309</v>
+        <v>3059.727123406592</v>
       </c>
       <c r="W20" t="n">
-        <v>2482.776110290992</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X20" t="n">
         <v>2482.776110290992</v>
@@ -5820,16 +5820,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.151773123554</v>
+        <v>569.1217789872288</v>
       </c>
       <c r="C22" t="n">
-        <v>537.857290403444</v>
+        <v>474.8272962671189</v>
       </c>
       <c r="D22" t="n">
-        <v>462.3823511989052</v>
+        <v>399.3523570625801</v>
       </c>
       <c r="E22" t="n">
-        <v>389.110957824309</v>
+        <v>326.0809636879839</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978706</v>
+        <v>253.8327163978705</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803865</v>
+        <v>160.7715799803864</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604117</v>
+        <v>89.19609340604113</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5950,10 +5950,10 @@
         <v>1038.65726737195</v>
       </c>
       <c r="X22" t="n">
-        <v>885.30941668173</v>
+        <v>822.2794225454048</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459968</v>
+        <v>676.1285436096716</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059183</v>
@@ -5987,28 +5987,28 @@
         <v>73.3777548224824</v>
       </c>
       <c r="J23" t="n">
-        <v>323.4220704786007</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>657.2414441684471</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
-        <v>1108.275657416856</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1641.80756208878</v>
+        <v>1580.642377391688</v>
       </c>
       <c r="N23" t="n">
-        <v>2188.586379147562</v>
+        <v>2463.83747557512</v>
       </c>
       <c r="O23" t="n">
-        <v>2691.558850026899</v>
+        <v>2966.809946454457</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.333216384077</v>
+        <v>3361.584312811635</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893065</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
         <v>3668.88774112412</v>
@@ -6020,10 +6020,10 @@
         <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
         <v>2788.465806734574</v>
@@ -6054,37 +6054,37 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.886940783077</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800937</v>
+        <v>2103.778031800938</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.27762327704</v>
+        <v>2414.277623277041</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138525</v>
+        <v>575.9874173775278</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937425</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>469.2479895892037</v>
+        <v>406.2179954528791</v>
       </c>
       <c r="E25" t="n">
-        <v>332.946602078283</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881696</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
         <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634015</v>
+        <v>96.06173179634011</v>
       </c>
       <c r="I25" t="n">
         <v>73.3777548224824</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6154,7 +6154,7 @@
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663393</v>
+        <v>983.2044142663394</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,31 +6166,31 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478791</v>
+        <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444116</v>
+        <v>1855.941435307791</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.927245478739</v>
+        <v>1738.897251342414</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256062</v>
+        <v>1591.772336119737</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589503</v>
+        <v>1377.311169453178</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591413</v>
+        <v>1197.268381455088</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762249</v>
+        <v>982.4929116259242</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720285</v>
+        <v>829.1450609357038</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362953</v>
+        <v>682.9941819999706</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058812</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
         <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309627</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6348,7 +6348,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6443,61 +6443,61 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058812</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
@@ -6516,52 +6516,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
         <v>2579.543989590362</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6692,34 +6692,34 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611206</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O32" t="n">
-        <v>3290.208794490543</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982181</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,22 +6920,22 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307335</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810562</v>
@@ -6944,43 +6944,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,31 +7032,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
         <v>1109.759191501176</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>599.6022649647787</v>
+        <v>642.2355359389138</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368718</v>
+        <v>571.9707875848502</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245361</v>
+        <v>520.5255827463578</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159865</v>
+        <v>471.283923737808</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919196</v>
+        <v>324.3939762398977</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1569.880212084553</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1280.777345210196</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1124.764291578153</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150354</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908615</v>
+        <v>946.0051453388403</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.5792952211749</v>
+        <v>823.8840007691535</v>
       </c>
     </row>
     <row r="38">
@@ -7151,55 +7151,55 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
@@ -7217,7 +7217,7 @@
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,7 +7257,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>642.2355359389139</v>
+        <v>740.9069705127581</v>
       </c>
       <c r="C40" t="n">
-        <v>571.9707875848503</v>
+        <v>670.6422221586946</v>
       </c>
       <c r="D40" t="n">
-        <v>520.5255827463579</v>
+        <v>619.1970173202023</v>
       </c>
       <c r="E40" t="n">
-        <v>372.6124891639648</v>
+        <v>471.2839237378092</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398978</v>
+        <v>324.3939762398988</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146168</v>
+        <v>156.6911396146178</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
         <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>976.6518270891711</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X40" t="n">
-        <v>847.333710764997</v>
+        <v>946.005145338841</v>
       </c>
       <c r="Y40" t="n">
-        <v>725.2125661953103</v>
+        <v>823.8840007691543</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7412,13 +7412,13 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7427,7 +7427,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7451,7 +7451,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7506,7 +7506,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>795.5993767202773</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C43" t="n">
-        <v>626.6631937923704</v>
+        <v>769.3136567325375</v>
       </c>
       <c r="D43" t="n">
-        <v>476.5465543800346</v>
+        <v>619.1970173202018</v>
       </c>
       <c r="E43" t="n">
-        <v>427.3048953714849</v>
+        <v>471.2839237378087</v>
       </c>
       <c r="F43" t="n">
-        <v>379.0863824474179</v>
+        <v>423.0654108137417</v>
       </c>
       <c r="G43" t="n">
         <v>310.0549803959803</v>
@@ -7567,16 +7567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,19 +7588,19 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489162</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
         <v>1364.740431699975</v>
@@ -7612,7 +7612,7 @@
         <v>1044.676579912684</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.555435342997</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7628,55 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7716,28 +7716,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.5784050866018</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C46" t="n">
-        <v>725.3346283662135</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D46" t="n">
-        <v>575.2179889538777</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E46" t="n">
-        <v>525.9763299453281</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084553</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150361</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.555435342998</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729007</v>
+        <v>184.4039433729008</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389603</v>
+        <v>191.4948909389604</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333066</v>
+        <v>181.0856325333067</v>
       </c>
       <c r="N8" t="n">
-        <v>179.355374883024</v>
+        <v>179.3553748830241</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383989</v>
+        <v>182.830155438399</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586584</v>
+        <v>190.8908035586585</v>
       </c>
       <c r="Q8" t="n">
         <v>192.0103836266124</v>
@@ -8535,19 +8535,19 @@
         <v>113.6031223372533</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672273</v>
+        <v>105.9629718672274</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253592</v>
+        <v>104.1013981253593</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677649</v>
+        <v>92.30246558677652</v>
       </c>
       <c r="O9" t="n">
         <v>106.8829608359735</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798323</v>
+        <v>105.3113487798324</v>
       </c>
       <c r="Q9" t="n">
         <v>120.8212784615457</v>
@@ -8620,10 +8620,10 @@
         <v>119.1996074085227</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140777</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530924</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
         <v>122.5080856662704</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.78301484554837</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>339.8144253784345</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,16 +9881,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>287.0017854473924</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>105.7385611944695</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,16 +10115,16 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>287.0017854473924</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>240.9710754359417</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>209.1187564935617</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.13331566353736e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
-        <v>240.3200804397574</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104941</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>70.46187022623349</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>53.21705108610766</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>37.30949258132645</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>311.9978454904829</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>194.2574550006235</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115015</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>100.6892862655191</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>65.37468217642359</v>
+        <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23786,16 +23786,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>79.19514304898725</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
-        <v>37.21630084065296</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
-        <v>37.21630084065299</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>167.7369527970459</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1185351.728568913</v>
+        <v>1185351.728568912</v>
       </c>
     </row>
     <row r="9">
@@ -26323,13 +26323,13 @@
         <v>200623.5002488679</v>
       </c>
       <c r="F2" t="n">
-        <v>200623.5002488679</v>
+        <v>200623.500248868</v>
       </c>
       <c r="G2" t="n">
         <v>218495.9758427974</v>
       </c>
       <c r="H2" t="n">
-        <v>218495.9758427974</v>
+        <v>218495.9758427973</v>
       </c>
       <c r="I2" t="n">
         <v>225786.4867126778</v>
@@ -26344,16 +26344,16 @@
         <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
+        <v>225786.4867126778</v>
+      </c>
+      <c r="N2" t="n">
+        <v>225786.4867126778</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.4867126779</v>
       </c>
-      <c r="N2" t="n">
-        <v>225786.4867126779</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>225786.4867126778</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.4867126779</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552293</v>
+        <v>59764.55367552286</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
@@ -26378,34 +26378,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487408</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983349</v>
+        <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.547473508864641e-11</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.13686837721616e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>439568.9169913875</v>
       </c>
       <c r="E4" t="n">
-        <v>41244.04987367436</v>
+        <v>41244.04987367433</v>
       </c>
       <c r="F4" t="n">
-        <v>41244.0498736743</v>
+        <v>41244.04987367435</v>
       </c>
       <c r="G4" t="n">
         <v>78272.21023511657</v>
       </c>
       <c r="H4" t="n">
-        <v>78272.21023511655</v>
+        <v>78272.21023511657</v>
       </c>
       <c r="I4" t="n">
-        <v>93189.85962057464</v>
+        <v>93189.8596205746</v>
       </c>
       <c r="J4" t="n">
-        <v>93063.75099226082</v>
+        <v>93063.75099226074</v>
       </c>
       <c r="K4" t="n">
-        <v>93063.75099226083</v>
+        <v>93063.7509922607</v>
       </c>
       <c r="L4" t="n">
-        <v>93063.75099226082</v>
+        <v>93063.75099226068</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820644</v>
+        <v>93403.78684820628</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="O4" t="n">
+        <v>93403.78684820631</v>
+      </c>
+      <c r="P4" t="n">
         <v>93403.78684820633</v>
-      </c>
-      <c r="P4" t="n">
-        <v>93403.78684820642</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>35148.90543186636</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26485,7 +26485,7 @@
         <v>80518.64312521489</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521489</v>
+        <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
         <v>85736.5283018421</v>
@@ -26500,16 +26500,16 @@
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-271477.3379549242</v>
+        <v>-271481.7515327923</v>
       </c>
       <c r="C6" t="n">
-        <v>-271477.3379549242</v>
+        <v>-271481.7515327923</v>
       </c>
       <c r="D6" t="n">
-        <v>-309175.2419021415</v>
+        <v>-309179.5996522873</v>
       </c>
       <c r="E6" t="n">
-        <v>-1006429.012153265</v>
+        <v>-1006657.766575663</v>
       </c>
       <c r="F6" t="n">
-        <v>82809.96001036718</v>
+        <v>82581.20558796915</v>
       </c>
       <c r="G6" t="n">
-        <v>22125.01318759187</v>
+        <v>22058.73581604751</v>
       </c>
       <c r="H6" t="n">
-        <v>59705.12248246594</v>
+        <v>59638.84511092153</v>
       </c>
       <c r="I6" t="n">
-        <v>24038.63096042762</v>
+        <v>24038.63096042743</v>
       </c>
       <c r="J6" t="n">
-        <v>17935.36102381427</v>
+        <v>17935.36102381426</v>
       </c>
       <c r="K6" t="n">
-        <v>43344.79404561111</v>
+        <v>43344.79404561126</v>
       </c>
       <c r="L6" t="n">
-        <v>5764.684750737157</v>
+        <v>5764.684750737288</v>
       </c>
       <c r="M6" t="n">
-        <v>-152303.9974345028</v>
+        <v>-152303.9974345026</v>
       </c>
       <c r="N6" t="n">
-        <v>49864.10255822189</v>
+        <v>49864.10255822162</v>
       </c>
       <c r="O6" t="n">
+        <v>49864.10255822183</v>
+      </c>
+      <c r="P6" t="n">
         <v>49864.10255822158</v>
-      </c>
-      <c r="P6" t="n">
-        <v>49864.10255822155</v>
       </c>
     </row>
   </sheetData>
@@ -26695,37 +26695,37 @@
         <v>26.92014658712642</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G2" t="n">
         <v>73.89528320571897</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790658</v>
+        <v>69.78465283790651</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26805,7 +26805,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>917.22193528103</v>
@@ -26814,22 +26814,22 @@
         <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,19 +26935,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951255</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.684341886080801e-14</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.4210854715202e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790658</v>
+        <v>69.78465283790651</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959714</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434004</v>
+        <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
         <v>199.6603204104727</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519082</v>
+        <v>84.46220888519083</v>
       </c>
       <c r="K10" t="n">
-        <v>7.6490350509903</v>
+        <v>7.649035050990314</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317049</v>
+        <v>75.62456067317051</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712637</v>
+        <v>26.92014658712642</v>
       </c>
     </row>
     <row r="17">
@@ -28725,7 +28725,7 @@
         <v>73.89528320571897</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075713</v>
       </c>
       <c r="E19" t="n">
         <v>73.89528320571897</v>
@@ -28782,7 +28782,7 @@
         <v>73.89528320571897</v>
       </c>
       <c r="W19" t="n">
-        <v>11.4955890107571</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X19" t="n">
         <v>73.89528320571897</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F22" t="n">
-        <v>11.49558901075724</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075704</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="E25" t="n">
-        <v>11.4955890107577</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571894</v>
+        <v>11.49558901075653</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571894</v>
+        <v>73.89528320571897</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859398</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859375</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810506</v>
+        <v>55.47778196371192</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>55.47778196371081</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371176</v>
+        <v>55.47778196371074</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="42">
@@ -30615,22 +30615,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.14548214544475</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>54.14548214544448</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="C46" t="n">
-        <v>54.14548214544334</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810509</v>
+        <v>55.47778196371104</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810509</v>
+        <v>97.68472022810498</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810509</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413327</v>
+        <v>0.2805413179413325</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366675</v>
+        <v>2.873093772366672</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993324</v>
+        <v>10.81556915993323</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362321</v>
+        <v>23.81059368362319</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207984</v>
+        <v>35.6859076720798</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102691</v>
+        <v>44.27152403102686</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396608</v>
+        <v>49.26060069396603</v>
       </c>
       <c r="N8" t="n">
-        <v>50.0576887135669</v>
+        <v>50.05768871356685</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328777</v>
+        <v>47.26805598328772</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661111</v>
+        <v>40.34219219661107</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783712</v>
+        <v>30.29530624783709</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313226</v>
+        <v>17.62255356313224</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588127</v>
+        <v>6.39283528258812</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288185</v>
+        <v>1.228069619288183</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530662</v>
+        <v>0.02244330543530659</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796481</v>
+        <v>0.150102838179648</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840286</v>
+        <v>1.449677410840285</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694025</v>
+        <v>5.16801438469402</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790693</v>
+        <v>14.18142647906929</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710572</v>
+        <v>24.2383166371057</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264684</v>
+        <v>32.59140791264681</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665908</v>
+        <v>38.03263579665904</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655681</v>
+        <v>39.03924649655678</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847092</v>
+        <v>35.71328360847089</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449789</v>
+        <v>28.66305863449787</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447579</v>
+        <v>19.16049562447576</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276798</v>
+        <v>9.319542882767971</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608813</v>
+        <v>2.78809438460881</v>
       </c>
       <c r="T9" t="n">
-        <v>0.60501977318902</v>
+        <v>0.6050197731890194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345275</v>
+        <v>0.009875186722345265</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248684</v>
+        <v>0.1258411772486838</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811028</v>
+        <v>1.118842466811026</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078607</v>
+        <v>3.784387403078603</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481956</v>
+        <v>8.896971231481947</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489255</v>
+        <v>14.62045677489254</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477253</v>
+        <v>18.70915102477251</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908234</v>
+        <v>19.72617653908232</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115545</v>
+        <v>19.25713215115542</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875036</v>
+        <v>17.78707839875034</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287719</v>
+        <v>15.21991838287718</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852389</v>
+        <v>10.53748257852388</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381734</v>
+        <v>5.658276933381729</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233883</v>
+        <v>2.19306851623388</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625586</v>
+        <v>0.5376850300625581</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564588</v>
+        <v>0.006864064213564581</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987481</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019268</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
         <v>346.6775187573245</v>
@@ -35817,13 +35817,13 @@
         <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
         <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>252.5700158142609</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>892.116260791346</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127265</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>825.922901277619</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>504.5005474138413</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564876</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>825.922901277619</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>749.0240763241608</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,16 +36996,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>761.420591906473</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165871</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887918</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
